--- a/ig/fix/#2-errors-gofsh/StructureDefinition-cds-fr-related-person.xlsx
+++ b/ig/fix/#2-errors-gofsh/StructureDefinition-cds-fr-related-person.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-23T19:56:26+00:00</t>
+    <t>2023-06-26T08:37:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/fix/#2-errors-gofsh/StructureDefinition-cds-fr-related-person.xlsx
+++ b/ig/fix/#2-errors-gofsh/StructureDefinition-cds-fr-related-person.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T08:37:35+00:00</t>
+    <t>2023-06-30T14:17:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>42</v>

--- a/ig/fix/#2-errors-gofsh/StructureDefinition-cds-fr-related-person.xlsx
+++ b/ig/fix/#2-errors-gofsh/StructureDefinition-cds-fr-related-person.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-30T14:17:51+00:00</t>
+    <t>2023-06-30T15:58:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/fix/#2-errors-gofsh/StructureDefinition-cds-fr-related-person.xlsx
+++ b/ig/fix/#2-errors-gofsh/StructureDefinition-cds-fr-related-person.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-30T15:58:37+00:00</t>
+    <t>2023-07-03T10:46:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/fix/#2-errors-gofsh/StructureDefinition-cds-fr-related-person.xlsx
+++ b/ig/fix/#2-errors-gofsh/StructureDefinition-cds-fr-related-person.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-03T10:46:57+00:00</t>
+    <t>2023-07-03T16:53:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
